--- a/src/test/resources/testdata/LoginData.xlsx
+++ b/src/test/resources/testdata/LoginData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\MyAutomation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F1A5A3-DB12-4CFD-B81E-6DA3340ED33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257B6794-0129-4FF7-9785-1B7492D50432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C270E7D-8191-456C-8553-E01684361388}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="URLs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -43,13 +44,25 @@
   </si>
   <si>
     <t>subbu</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/</t>
+  </si>
+  <si>
+    <t>WebPage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,8 +76,16 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +95,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,10 +129,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,8 +144,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,7 +474,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,4 +511,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941094CB-738B-4225-A171-1528432CAB3D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{277DFFE5-1F11-4F4C-9F68-C7C3461BFBFE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>